--- a/i18n_output/zh-TW_tobemodified.xlsx
+++ b/i18n_output/zh-TW_tobemodified.xlsx
@@ -13833,7 +13833,7 @@
       </c>
       <c r="F278" s="2" t="inlineStr">
         <is>
-          <t>學員相關, 單位相關</t>
+          <t>單位相關, 學員相關</t>
         </is>
       </c>
       <c r="G278" s="2" t="inlineStr">
@@ -18595,7 +18595,7 @@
       </c>
       <c r="F377" s="4" t="inlineStr">
         <is>
-          <t>語言, 單位相關</t>
+          <t>單位相關, 語言</t>
         </is>
       </c>
       <c r="G377" s="4" t="inlineStr">
@@ -39405,7 +39405,7 @@
       </c>
       <c r="F813" s="4" t="inlineStr">
         <is>
-          <t>時間相關, 單位相關</t>
+          <t>單位相關, 時間相關</t>
         </is>
       </c>
       <c r="G813" s="4" t="inlineStr">
